--- a/Theory/Front End/data/regdata.xlsx
+++ b/Theory/Front End/data/regdata.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -972,27 +972,73 @@
       <c r="E21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>jhklsdf</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>7896542130</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>hduis@lknd.com</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>pubg</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" s="4" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>john wick</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>5647890123</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>johnw@gmail.com</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>coding</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ajay krishna</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1256789011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>akri@gmail.com</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>pubg</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
